--- a/test_data/case_data.xlsx
+++ b/test_data/case_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7500" windowWidth="19890" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="init" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="init" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>case_id</t>
   </si>
@@ -49,9 +49,6 @@
     <t>验证成功注册</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${tel_1}","pwd":"111111"}</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>验证正常登录</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
-  </si>
-  <si>
     <t>{"mobilephone":"15711112222","pwd":"111111"}</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>验证正常充值</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
-  </si>
-  <si>
     <t>{"mobilephone":"15711112222","amount":"1000"}</t>
   </si>
   <si>
@@ -149,39 +140,47 @@
   </si>
   <si>
     <t>{"mobilephone":"15711112222","amount":"-100"}</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://test.lemonban.com/futureloan/mvc/api/member/register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,30 +196,102 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,25 +552,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.25"/>
-    <col customWidth="1" max="2" min="2" style="1" width="11.25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="23.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="34.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="51.375"/>
-    <col customWidth="1" max="7" min="7" style="3" width="17.375"/>
+    <col min="1" max="1" width="9.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -528,8 +595,8 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="3" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -538,153 +605,150 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20110</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>20110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" s="3" spans="1:8">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>20103</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" s="3" spans="1:8">
-      <c r="A5" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="3" spans="1:8">
-      <c r="A6" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>20108</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="3" width="20.75"/>
-    <col customWidth="1" max="4" min="4" style="3" width="29.5"/>
-    <col customWidth="1" max="5" min="5" style="1" width="24.75"/>
-    <col customWidth="1" max="7" min="7" style="3" width="19.875"/>
+    <col min="3" max="3" width="20.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -713,165 +777,162 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="57" r="2" s="3" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="57" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>20103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>20103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="3" s="3" spans="1:8">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="G5" s="1">
+        <v>20111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6">
         <v>20103</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="4" s="3" spans="1:8">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" s="3" spans="1:8">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>20111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="6" s="3" spans="1:8">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20103</v>
-      </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/login"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="11.75"/>
-    <col customWidth="1" max="3" min="3" style="3" width="22.75"/>
-    <col customWidth="1" max="4" min="4" style="1" width="34.125"/>
-    <col customWidth="1" max="5" min="5" style="3" width="28.5"/>
-    <col customWidth="1" max="6" min="6" style="3" width="9.375"/>
-    <col customWidth="1" max="7" min="7" style="3" width="19"/>
-    <col customWidth="1" max="8" min="8" style="3" width="12.625"/>
+    <col min="2" max="2" width="11.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -900,168 +961,164 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="3" spans="1:8">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>10001</v>
       </c>
     </row>
-    <row customHeight="1" ht="55.15" r="3" s="3" spans="1:8">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" ht="55.2" customHeight="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>10001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" s="3" spans="1:8">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>20101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20104</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="5" s="3" spans="1:8">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>20118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20101</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="3" spans="1:8">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20118</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="7" s="3" spans="1:8">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
         <v>20117</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://47.107.168.87:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>